--- a/biology/Botanique/Garryales/Garryales.xlsx
+++ b/biology/Botanique/Garryales/Garryales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,23 +490,25 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Garryales est un ordre de plantes dicotylédones introduit par la classification phylogénétique des Angiospermes.
-En classification phylogénétique APG (1998)[1] la circonscription était :
+En classification phylogénétique APG (1998) la circonscription était :
 ordre Garryales
 : famille Aucubaceae
 : famille Eucommiaceae
 : famille Garryaceae
 : famille Oncothecaceae
-En classification phylogénétique APG II (2003)[2] la circonscription était :
+En classification phylogénétique APG II (2003) la circonscription était :
 ordre Garryales
 : famille Eucommiaceae
 : famille Garryaceae
 :: [+ famille Aucubaceae ]
 NB : "[+ ...]" = famille optionnelle
 Le APWebsite [22 dec 2003] n'accepte pas la famille Aucubaceae et l'ordre comprend deux familles.
-En classification phylogénétique APG III (2009)[3] la circonscription est :
+En classification phylogénétique APG III (2009) la circonscription est :
 ordre Garryales Lindl. (1835)
 : famille Eucommiaceae Engl. (1907)
 : famille Garryaceae Lindl. (1834) (incluant Aucubaceae Bercht. &amp; J.Presl)
